--- a/Agendas/202205 Virtual WGM FHIR Agenda.xlsx
+++ b/Agendas/202205 Virtual WGM FHIR Agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\Documents\SVN\documents\Agendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A274140-EAC3-44BE-855C-EB289A1F4B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C0AA4A-7AF1-4667-AB35-4D0E0CAA744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="1470" windowWidth="16447" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
   <si>
     <t>Q1</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>Dev</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Who are we? Tracker items</t>
+  </si>
+  <si>
+    <t>Tracker items</t>
+  </si>
+  <si>
+    <t>How to apply tracker items</t>
+  </si>
+  <si>
+    <t>Delegation of existing tracker items</t>
+  </si>
+  <si>
+    <t>Tracker items &amp; delegation</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>MnM</t>
   </si>
 </sst>
 </file>
@@ -557,10 +581,10 @@
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -568,7 +592,8 @@
     <col min="1" max="6" width="9.1328125" style="1"/>
     <col min="7" max="7" width="9.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.1328125" style="1"/>
+    <col min="9" max="9" width="32.3984375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.1328125" style="1"/>
     <col min="13" max="13" width="19.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.1328125" style="1"/>
@@ -625,7 +650,9 @@
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -643,7 +670,9 @@
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
@@ -680,7 +709,9 @@
         <v>13</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
@@ -723,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
@@ -734,7 +765,9 @@
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -795,7 +828,9 @@
         <v>13</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -814,14 +849,18 @@
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -847,7 +886,9 @@
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -888,8 +929,8 @@
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>21</v>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>21</v>
@@ -925,7 +966,9 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
@@ -998,7 +1041,9 @@
         <v>13</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
@@ -1028,7 +1073,9 @@
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="R25" s="8"/>
     </row>
@@ -1055,9 +1102,7 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1072,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>13</v>
@@ -1084,7 +1129,9 @@
         <v>13</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
@@ -1103,7 +1150,9 @@
       <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
@@ -1134,7 +1183,9 @@
         <v>13</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
